--- a/outcome/appendix/forecast/Hepatitis B.xlsx
+++ b/outcome/appendix/forecast/Hepatitis B.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>102589.229588579</v>
+        <v>102855.48960668</v>
       </c>
       <c r="C2" t="n">
-        <v>94649.1277541906</v>
+        <v>94545.6313546581</v>
       </c>
       <c r="D2" t="n">
-        <v>91312.5248229744</v>
+        <v>88168.6253009657</v>
       </c>
       <c r="E2" t="n">
-        <v>112017.725974786</v>
+        <v>111771.543070509</v>
       </c>
       <c r="F2" t="n">
-        <v>116230.300898208</v>
+        <v>115630.499862105</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>91026</v>
       </c>
       <c r="I2" t="n">
-        <v>11563.2295885789</v>
+        <v>11829.4896066795</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>95545.5267957855</v>
+        <v>96769.3029771241</v>
       </c>
       <c r="C3" t="n">
-        <v>87175.2952704198</v>
+        <v>89035.3034864326</v>
       </c>
       <c r="D3" t="n">
-        <v>82636.8380569452</v>
+        <v>83221.0268413642</v>
       </c>
       <c r="E3" t="n">
-        <v>105299.937562152</v>
+        <v>105144.233021894</v>
       </c>
       <c r="F3" t="n">
-        <v>109929.683875775</v>
+        <v>111378.708729209</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>51506</v>
       </c>
       <c r="I3" t="n">
-        <v>44039.5267957855</v>
+        <v>45263.3029771241</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>118798.746291371</v>
+        <v>118923.933385775</v>
       </c>
       <c r="C4" t="n">
-        <v>110071.092921187</v>
+        <v>109446.828502765</v>
       </c>
       <c r="D4" t="n">
-        <v>105192.491113307</v>
+        <v>107397.729426534</v>
       </c>
       <c r="E4" t="n">
-        <v>127951.757362916</v>
+        <v>128640.10968994</v>
       </c>
       <c r="F4" t="n">
-        <v>132511.531787061</v>
+        <v>134762.696167833</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>88150</v>
       </c>
       <c r="I4" t="n">
-        <v>30648.7462913714</v>
+        <v>30773.9333857748</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>109436.676859397</v>
+        <v>109019.323264031</v>
       </c>
       <c r="C5" t="n">
-        <v>98859.4539421572</v>
+        <v>99024.167023744</v>
       </c>
       <c r="D5" t="n">
-        <v>95368.1579389218</v>
+        <v>95770.278594189</v>
       </c>
       <c r="E5" t="n">
-        <v>118933.348205987</v>
+        <v>118927.045758533</v>
       </c>
       <c r="F5" t="n">
-        <v>124330.210140047</v>
+        <v>124087.253161202</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>101262</v>
       </c>
       <c r="I5" t="n">
-        <v>8174.67685939661</v>
+        <v>7757.32326403141</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>107852.740213351</v>
+        <v>108729.238482119</v>
       </c>
       <c r="C6" t="n">
-        <v>97522.5103448406</v>
+        <v>99856.7410351065</v>
       </c>
       <c r="D6" t="n">
-        <v>93663.0495133416</v>
+        <v>94715.3706960951</v>
       </c>
       <c r="E6" t="n">
-        <v>117560.160685529</v>
+        <v>118565.797990462</v>
       </c>
       <c r="F6" t="n">
-        <v>122524.404968485</v>
+        <v>124352.199357691</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>97651</v>
       </c>
       <c r="I6" t="n">
-        <v>10201.7402133513</v>
+        <v>11078.2384821188</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>102765.879015851</v>
+        <v>103425.502534786</v>
       </c>
       <c r="C7" t="n">
-        <v>92636.1314386924</v>
+        <v>93339.4309296179</v>
       </c>
       <c r="D7" t="n">
-        <v>89110.8682518854</v>
+        <v>88345.0048662837</v>
       </c>
       <c r="E7" t="n">
-        <v>112890.68616538</v>
+        <v>113333.82259326</v>
       </c>
       <c r="F7" t="n">
-        <v>117479.662657697</v>
+        <v>119130.88772717</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>99319</v>
       </c>
       <c r="I7" t="n">
-        <v>3446.87901585092</v>
+        <v>4106.50253478646</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>109400.946212371</v>
+        <v>111812.05610949</v>
       </c>
       <c r="C8" t="n">
-        <v>99703.7147758455</v>
+        <v>101094.027611005</v>
       </c>
       <c r="D8" t="n">
-        <v>91846.2194799582</v>
+        <v>94905.9084388076</v>
       </c>
       <c r="E8" t="n">
-        <v>119451.977696209</v>
+        <v>124196.42373589</v>
       </c>
       <c r="F8" t="n">
-        <v>123183.487237043</v>
+        <v>129230.230245539</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>102304</v>
       </c>
       <c r="I8" t="n">
-        <v>7096.94621237121</v>
+        <v>9508.05610949025</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>109113.404253173</v>
+        <v>110966.128881173</v>
       </c>
       <c r="C9" t="n">
-        <v>99595.1708195027</v>
+        <v>98177.517937482</v>
       </c>
       <c r="D9" t="n">
-        <v>94032.4853581924</v>
+        <v>91769.3732579099</v>
       </c>
       <c r="E9" t="n">
-        <v>120611.455906788</v>
+        <v>122261.613170743</v>
       </c>
       <c r="F9" t="n">
-        <v>126719.981601281</v>
+        <v>129120.300658095</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>102304</v>
       </c>
       <c r="I9" t="n">
-        <v>6809.40425317285</v>
+        <v>8662.12888117337</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>100658.878720801</v>
+        <v>102673.85618125</v>
       </c>
       <c r="C10" t="n">
-        <v>89638.790427851</v>
+        <v>91858.3891927977</v>
       </c>
       <c r="D10" t="n">
-        <v>83231.4893071036</v>
+        <v>84901.6526292986</v>
       </c>
       <c r="E10" t="n">
-        <v>111964.685987114</v>
+        <v>113452.537412751</v>
       </c>
       <c r="F10" t="n">
-        <v>117063.698523241</v>
+        <v>121509.035328911</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>105377</v>
       </c>
       <c r="I10" t="n">
-        <v>-4718.12127919872</v>
+        <v>-2703.14381874999</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>99098.5680416673</v>
+        <v>100285.478811365</v>
       </c>
       <c r="C11" t="n">
-        <v>86587.7784677826</v>
+        <v>87909.606125913</v>
       </c>
       <c r="D11" t="n">
-        <v>80969.3634481888</v>
+        <v>80707.9960563916</v>
       </c>
       <c r="E11" t="n">
-        <v>109613.84052047</v>
+        <v>112831.780091194</v>
       </c>
       <c r="F11" t="n">
-        <v>118471.8541426</v>
+        <v>119257.431496013</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>95633</v>
       </c>
       <c r="I11" t="n">
-        <v>3465.56804166725</v>
+        <v>4652.47881136477</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>101816.504960342</v>
+        <v>104388.917935827</v>
       </c>
       <c r="C12" t="n">
-        <v>89155.5735386091</v>
+        <v>90738.7396279182</v>
       </c>
       <c r="D12" t="n">
-        <v>80906.6507344105</v>
+        <v>83778.825331894</v>
       </c>
       <c r="E12" t="n">
-        <v>114308.185454027</v>
+        <v>115832.791056141</v>
       </c>
       <c r="F12" t="n">
-        <v>119642.46431796</v>
+        <v>124271.238008526</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>100561</v>
       </c>
       <c r="I12" t="n">
-        <v>1255.50496034235</v>
+        <v>3827.91793582702</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>101294.83379727</v>
+        <v>103749.332302457</v>
       </c>
       <c r="C13" t="n">
-        <v>89934.5749258281</v>
+        <v>90734.3318986086</v>
       </c>
       <c r="D13" t="n">
-        <v>83669.2597529324</v>
+        <v>83714.7705892158</v>
       </c>
       <c r="E13" t="n">
-        <v>113639.66576931</v>
+        <v>116951.404333122</v>
       </c>
       <c r="F13" t="n">
-        <v>119169.945089597</v>
+        <v>126954.955937118</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>100209</v>
       </c>
       <c r="I13" t="n">
-        <v>1085.83379726994</v>
+        <v>3540.33230245684</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>102864.840708656</v>
+        <v>106472.374968391</v>
       </c>
       <c r="C14" t="n">
-        <v>91489.5730838988</v>
+        <v>90291.1189329094</v>
       </c>
       <c r="D14" t="n">
-        <v>84473.1736740716</v>
+        <v>82119.9283898908</v>
       </c>
       <c r="E14" t="n">
-        <v>116130.290722743</v>
+        <v>121656.716031142</v>
       </c>
       <c r="F14" t="n">
-        <v>122802.730376671</v>
+        <v>132736.224078036</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>98257</v>
       </c>
       <c r="I14" t="n">
-        <v>4607.84070865611</v>
+        <v>8215.37496839122</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>96501.4832701845</v>
+        <v>99334.3549681137</v>
       </c>
       <c r="C15" t="n">
-        <v>83281.6854091561</v>
+        <v>84553.5774453281</v>
       </c>
       <c r="D15" t="n">
-        <v>76660.8078970132</v>
+        <v>77419.9851119718</v>
       </c>
       <c r="E15" t="n">
-        <v>110810.493407849</v>
+        <v>117279.425077101</v>
       </c>
       <c r="F15" t="n">
-        <v>115910.232330203</v>
+        <v>124504.722426551</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>83014</v>
       </c>
       <c r="I15" t="n">
-        <v>13487.4832701845</v>
+        <v>16320.3549681137</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>119706.486689035</v>
+        <v>122087.518417517</v>
       </c>
       <c r="C16" t="n">
-        <v>107121.596777168</v>
+        <v>105251.76702022</v>
       </c>
       <c r="D16" t="n">
-        <v>98532.1843820658</v>
+        <v>97426.7197662845</v>
       </c>
       <c r="E16" t="n">
-        <v>133817.213927116</v>
+        <v>137792.389122537</v>
       </c>
       <c r="F16" t="n">
-        <v>137786.435010578</v>
+        <v>152486.708888809</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>119423</v>
       </c>
       <c r="I16" t="n">
-        <v>283.486689034587</v>
+        <v>2664.51841751709</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>109212.764403647</v>
+        <v>112153.465569077</v>
       </c>
       <c r="C17" t="n">
-        <v>97122.2536805096</v>
+        <v>94736.3943716964</v>
       </c>
       <c r="D17" t="n">
-        <v>92589.4690279683</v>
+        <v>85997.2706252041</v>
       </c>
       <c r="E17" t="n">
-        <v>122093.667254704</v>
+        <v>130010.898117276</v>
       </c>
       <c r="F17" t="n">
-        <v>127822.991654059</v>
+        <v>137015.139620256</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,10 +928,10 @@
         <v>110385</v>
       </c>
       <c r="I17" t="n">
-        <v>-1172.2355963533</v>
+        <v>1768.46556907748</v>
       </c>
       <c r="J17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>108160.07391167</v>
+        <v>111457.83883838</v>
       </c>
       <c r="C18" t="n">
-        <v>96255.2262945867</v>
+        <v>95129.7056444657</v>
       </c>
       <c r="D18" t="n">
-        <v>86788.0325133902</v>
+        <v>85693.2828309759</v>
       </c>
       <c r="E18" t="n">
-        <v>120938.702049041</v>
+        <v>130113.124449141</v>
       </c>
       <c r="F18" t="n">
-        <v>126954.006122988</v>
+        <v>142029.15104137</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>105393</v>
       </c>
       <c r="I18" t="n">
-        <v>2767.07391166962</v>
+        <v>6064.83883838019</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>103031.999107786</v>
+        <v>107532.55018112</v>
       </c>
       <c r="C19" t="n">
-        <v>89150.026390461</v>
+        <v>89329.2259061303</v>
       </c>
       <c r="D19" t="n">
-        <v>81962.4668120184</v>
+        <v>81851.4127675942</v>
       </c>
       <c r="E19" t="n">
-        <v>117387.974119266</v>
+        <v>126692.531310178</v>
       </c>
       <c r="F19" t="n">
-        <v>122210.413331129</v>
+        <v>134454.029071999</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>101633</v>
       </c>
       <c r="I19" t="n">
-        <v>1398.9991077857</v>
+        <v>5899.55018112036</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>110086.521423595</v>
+        <v>114494.206701814</v>
       </c>
       <c r="C20" t="n">
-        <v>95298.0263064444</v>
+        <v>96004.7891021886</v>
       </c>
       <c r="D20" t="n">
-        <v>88292.3541923933</v>
+        <v>83203.1473507648</v>
       </c>
       <c r="E20" t="n">
-        <v>122653.962282305</v>
+        <v>135112.28120533</v>
       </c>
       <c r="F20" t="n">
-        <v>131124.230639631</v>
+        <v>148817.646485585</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,10 +1024,10 @@
         <v>112287</v>
       </c>
       <c r="I20" t="n">
-        <v>-2200.47857640518</v>
+        <v>2207.20670181391</v>
       </c>
       <c r="J20" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>109522.720413138</v>
+        <v>113868.237802657</v>
       </c>
       <c r="C21" t="n">
-        <v>95670.5102572544</v>
+        <v>92029.3775358818</v>
       </c>
       <c r="D21" t="n">
-        <v>88908.8838595608</v>
+        <v>85207.7203128221</v>
       </c>
       <c r="E21" t="n">
-        <v>123153.157495633</v>
+        <v>136279.48806465</v>
       </c>
       <c r="F21" t="n">
-        <v>130174.016143437</v>
+        <v>148467.825070414</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>102061</v>
       </c>
       <c r="I21" t="n">
-        <v>7461.72041313814</v>
+        <v>11807.2378026569</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>100363.805610313</v>
+        <v>105203.250672422</v>
       </c>
       <c r="C22" t="n">
-        <v>87041.3451192975</v>
+        <v>84553.9848140555</v>
       </c>
       <c r="D22" t="n">
-        <v>79207.8008474756</v>
+        <v>75040.8720966134</v>
       </c>
       <c r="E22" t="n">
-        <v>114811.648111395</v>
+        <v>129354.290855708</v>
       </c>
       <c r="F22" t="n">
-        <v>118973.514570002</v>
+        <v>137142.84604609</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,10 +1088,10 @@
         <v>101701</v>
       </c>
       <c r="I22" t="n">
-        <v>-1337.19438968666</v>
+        <v>3502.25067242158</v>
       </c>
       <c r="J22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>99181.6936557788</v>
+        <v>103358.086176318</v>
       </c>
       <c r="C23" t="n">
-        <v>85544.5272775964</v>
+        <v>83445.1906883486</v>
       </c>
       <c r="D23" t="n">
-        <v>78405.3978588506</v>
+        <v>67536.3940203177</v>
       </c>
       <c r="E23" t="n">
-        <v>114360.200846842</v>
+        <v>124146.161509703</v>
       </c>
       <c r="F23" t="n">
-        <v>119962.50211854</v>
+        <v>139018.429109161</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>95942</v>
       </c>
       <c r="I23" t="n">
-        <v>3239.69365577878</v>
+        <v>7416.0861763179</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>102829.927872288</v>
+        <v>107965.815643777</v>
       </c>
       <c r="C24" t="n">
-        <v>88894.8240519053</v>
+        <v>84480.1002632519</v>
       </c>
       <c r="D24" t="n">
-        <v>82784.3039832948</v>
+        <v>73887.4950512752</v>
       </c>
       <c r="E24" t="n">
-        <v>117557.066005757</v>
+        <v>131271.746991127</v>
       </c>
       <c r="F24" t="n">
-        <v>123183.620082676</v>
+        <v>141982.674937583</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>102598</v>
       </c>
       <c r="I24" t="n">
-        <v>231.927872287779</v>
+        <v>5367.81564377691</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>102263.054136969</v>
+        <v>106895.2297621</v>
       </c>
       <c r="C25" t="n">
-        <v>87210.0255353109</v>
+        <v>81986.7908473369</v>
       </c>
       <c r="D25" t="n">
-        <v>80351.387850375</v>
+        <v>72913.1562274702</v>
       </c>
       <c r="E25" t="n">
-        <v>117512.441393373</v>
+        <v>130765.096472799</v>
       </c>
       <c r="F25" t="n">
-        <v>123662.987831992</v>
+        <v>147823.014491119</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>108157</v>
       </c>
       <c r="I25" t="n">
-        <v>-5893.94586303073</v>
+        <v>-1261.77023790016</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>103188.792641042</v>
+        <v>109181.831376372</v>
       </c>
       <c r="C26" t="n">
-        <v>87829.2788170321</v>
+        <v>81782.3597199488</v>
       </c>
       <c r="D26" t="n">
-        <v>78108.434565436</v>
+        <v>72573.0833242989</v>
       </c>
       <c r="E26" t="n">
-        <v>118749.731801571</v>
+        <v>134359.541190445</v>
       </c>
       <c r="F26" t="n">
-        <v>125850.833733116</v>
+        <v>151232.942334719</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>109531</v>
       </c>
       <c r="I26" t="n">
-        <v>-6342.20735895819</v>
+        <v>-349.168623627993</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>96440.7661277671</v>
+        <v>101393.061894587</v>
       </c>
       <c r="C27" t="n">
-        <v>81307.4209799383</v>
+        <v>78968.1339530143</v>
       </c>
       <c r="D27" t="n">
-        <v>70274.7942784726</v>
+        <v>60987.8893832256</v>
       </c>
       <c r="E27" t="n">
-        <v>111485.92564459</v>
+        <v>127434.256324616</v>
       </c>
       <c r="F27" t="n">
-        <v>119196.871978656</v>
+        <v>141695.197982122</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,10 +1248,10 @@
         <v>96787</v>
       </c>
       <c r="I27" t="n">
-        <v>-346.233872232944</v>
+        <v>4606.06189458702</v>
       </c>
       <c r="J27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>119386.966827244</v>
+        <v>124904.649546836</v>
       </c>
       <c r="C28" t="n">
-        <v>102809.711302401</v>
+        <v>97174.6364300149</v>
       </c>
       <c r="D28" t="n">
-        <v>94750.2461604831</v>
+        <v>84449.1404414928</v>
       </c>
       <c r="E28" t="n">
-        <v>136345.688359933</v>
+        <v>152456.366628937</v>
       </c>
       <c r="F28" t="n">
-        <v>143261.570629773</v>
+        <v>167826.820467099</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>114003</v>
       </c>
       <c r="I28" t="n">
-        <v>5383.96682724386</v>
+        <v>10901.6495468357</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>109154.489938372</v>
+        <v>114508.819070649</v>
       </c>
       <c r="C29" t="n">
-        <v>90186.6462996725</v>
+        <v>87811.7023134177</v>
       </c>
       <c r="D29" t="n">
-        <v>85681.9248542275</v>
+        <v>74175.4405646113</v>
       </c>
       <c r="E29" t="n">
-        <v>126664.890640764</v>
+        <v>144597.691185608</v>
       </c>
       <c r="F29" t="n">
-        <v>133925.510767418</v>
+        <v>164118.16586428</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>95933</v>
       </c>
       <c r="I29" t="n">
-        <v>13221.4899383724</v>
+        <v>18575.8190706492</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>108255.975796318</v>
+        <v>114231.015174692</v>
       </c>
       <c r="C30" t="n">
-        <v>92912.3372839436</v>
+        <v>86398.6263368048</v>
       </c>
       <c r="D30" t="n">
-        <v>81656.2297752925</v>
+        <v>74954.2097823143</v>
       </c>
       <c r="E30" t="n">
-        <v>124858.047278842</v>
+        <v>141584.200502736</v>
       </c>
       <c r="F30" t="n">
-        <v>131423.488507174</v>
+        <v>162976.694518501</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>102912</v>
       </c>
       <c r="I30" t="n">
-        <v>5343.97579631774</v>
+        <v>11319.0151746924</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>103141.048891181</v>
+        <v>109360.477182674</v>
       </c>
       <c r="C31" t="n">
-        <v>85676.4793913542</v>
+        <v>80315.0683373107</v>
       </c>
       <c r="D31" t="n">
-        <v>77494.5354423827</v>
+        <v>63769.6031257456</v>
       </c>
       <c r="E31" t="n">
-        <v>119971.60483062</v>
+        <v>139150.386841325</v>
       </c>
       <c r="F31" t="n">
-        <v>126873.945425469</v>
+        <v>160183.500254554</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,10 +1376,10 @@
         <v>106846</v>
       </c>
       <c r="I31" t="n">
-        <v>-3704.95110881866</v>
+        <v>2514.47718267377</v>
       </c>
       <c r="J31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>109790.713116249</v>
+        <v>116743.408109713</v>
       </c>
       <c r="C32" t="n">
-        <v>92355.0265994991</v>
+        <v>89313.6286061375</v>
       </c>
       <c r="D32" t="n">
-        <v>79956.2047216562</v>
+        <v>70070.5948471442</v>
       </c>
       <c r="E32" t="n">
-        <v>129086.44276985</v>
+        <v>148723.757201297</v>
       </c>
       <c r="F32" t="n">
-        <v>134452.595584603</v>
+        <v>166244.861983806</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,10 +1408,10 @@
         <v>112648</v>
       </c>
       <c r="I32" t="n">
-        <v>-2857.2868837515</v>
+        <v>4095.40810971333</v>
       </c>
       <c r="J32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>109714.806973394</v>
+        <v>116350.943315835</v>
       </c>
       <c r="C33" t="n">
-        <v>91659.9328620219</v>
+        <v>84958.9065940734</v>
       </c>
       <c r="D33" t="n">
-        <v>83347.1554848071</v>
+        <v>72662.6186683724</v>
       </c>
       <c r="E33" t="n">
-        <v>126906.868280666</v>
+        <v>146633.47317224</v>
       </c>
       <c r="F33" t="n">
-        <v>134393.119435811</v>
+        <v>165208.643220501</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,10 +1440,10 @@
         <v>115375</v>
       </c>
       <c r="I33" t="n">
-        <v>-5660.19302660631</v>
+        <v>975.943315834913</v>
       </c>
       <c r="J33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>101012.099928374</v>
+        <v>108320.591204846</v>
       </c>
       <c r="C34" t="n">
-        <v>82498.5528002303</v>
+        <v>74874.2487846824</v>
       </c>
       <c r="D34" t="n">
-        <v>72350.7591996601</v>
+        <v>58885.1823945394</v>
       </c>
       <c r="E34" t="n">
-        <v>118893.782404977</v>
+        <v>143521.175818152</v>
       </c>
       <c r="F34" t="n">
-        <v>126228.814013202</v>
+        <v>160379.718134346</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,10 +1472,10 @@
         <v>101083</v>
       </c>
       <c r="I34" t="n">
-        <v>-70.9000716260489</v>
+        <v>7237.59120484577</v>
       </c>
       <c r="J34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>99820.4808489007</v>
+        <v>106415.603495019</v>
       </c>
       <c r="C35" t="n">
-        <v>82145.0524863511</v>
+        <v>75216.8456377556</v>
       </c>
       <c r="D35" t="n">
-        <v>74065.6131642038</v>
+        <v>51559.9809046811</v>
       </c>
       <c r="E35" t="n">
-        <v>118133.281066793</v>
+        <v>138270.810297314</v>
       </c>
       <c r="F35" t="n">
-        <v>125996.606903982</v>
+        <v>167474.013642746</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>90015</v>
       </c>
       <c r="I35" t="n">
-        <v>9805.48084890068</v>
+        <v>16400.6034950195</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>102638.241789321</v>
+        <v>110665.157613004</v>
       </c>
       <c r="C36" t="n">
-        <v>83296.2474208529</v>
+        <v>76615.7108246738</v>
       </c>
       <c r="D36" t="n">
-        <v>71706.2654165697</v>
+        <v>53081.0899038069</v>
       </c>
       <c r="E36" t="n">
-        <v>121089.307527941</v>
+        <v>145611.563566161</v>
       </c>
       <c r="F36" t="n">
-        <v>128926.315082181</v>
+        <v>165242.647907937</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>86371</v>
       </c>
       <c r="I36" t="n">
-        <v>16267.2417893207</v>
+        <v>24294.157613004</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>102364.792030885</v>
+        <v>109088.082486108</v>
       </c>
       <c r="C37" t="n">
-        <v>82438.3366186993</v>
+        <v>73259.7496657782</v>
       </c>
       <c r="D37" t="n">
-        <v>74095.9181747525</v>
+        <v>56480.0299019739</v>
       </c>
       <c r="E37" t="n">
-        <v>122514.167861749</v>
+        <v>146753.995641752</v>
       </c>
       <c r="F37" t="n">
-        <v>132914.039394762</v>
+        <v>164903.435773178</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>59498</v>
       </c>
       <c r="I37" t="n">
-        <v>42866.7920308846</v>
+        <v>49590.0824861079</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>103340.893797589</v>
+        <v>111279.256620922</v>
       </c>
       <c r="C38" t="n">
-        <v>83554.5976342499</v>
+        <v>78239.7995467329</v>
       </c>
       <c r="D38" t="n">
-        <v>72085.0670972559</v>
+        <v>57807.185719835</v>
       </c>
       <c r="E38" t="n">
-        <v>124606.602430681</v>
+        <v>149230.279073719</v>
       </c>
       <c r="F38" t="n">
-        <v>131748.336262994</v>
+        <v>171373.212717534</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>74790</v>
       </c>
       <c r="I38" t="n">
-        <v>28550.8937975887</v>
+        <v>36489.2566209215</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>96746.4404152764</v>
+        <v>104641.577462856</v>
       </c>
       <c r="C39" t="n">
-        <v>77575.0158515708</v>
+        <v>69043.5325801705</v>
       </c>
       <c r="D39" t="n">
-        <v>68777.9386649346</v>
+        <v>52268.6356173657</v>
       </c>
       <c r="E39" t="n">
-        <v>117454.080798158</v>
+        <v>142290.915446885</v>
       </c>
       <c r="F39" t="n">
-        <v>124701.791472779</v>
+        <v>170154.707704215</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>116063</v>
       </c>
       <c r="I39" t="n">
-        <v>-19316.5595847236</v>
+        <v>-11421.4225371443</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>119464.326872447</v>
+        <v>127120.435732357</v>
       </c>
       <c r="C40" t="n">
-        <v>98896.5610763291</v>
+        <v>87421.6932631557</v>
       </c>
       <c r="D40" t="n">
-        <v>88857.0754558557</v>
+        <v>73908.7793532898</v>
       </c>
       <c r="E40" t="n">
-        <v>139741.106601836</v>
+        <v>167924.312170157</v>
       </c>
       <c r="F40" t="n">
-        <v>148570.180934081</v>
+        <v>185375.022891668</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,10 +1664,10 @@
         <v>126932</v>
       </c>
       <c r="I40" t="n">
-        <v>-7467.67312755319</v>
+        <v>188.435732357451</v>
       </c>
       <c r="J40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>109442.977911505</v>
+        <v>117594.66790439</v>
       </c>
       <c r="C41" t="n">
-        <v>88079.2980492795</v>
+        <v>77925.7947249579</v>
       </c>
       <c r="D41" t="n">
-        <v>78330.2531590691</v>
+        <v>60320.4701274804</v>
       </c>
       <c r="E41" t="n">
-        <v>129743.7773777</v>
+        <v>158155.069427757</v>
       </c>
       <c r="F41" t="n">
-        <v>138625.270421239</v>
+        <v>183895.840525567</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,10 +1696,10 @@
         <v>116400</v>
       </c>
       <c r="I41" t="n">
-        <v>-6957.02208849513</v>
+        <v>1194.66790438964</v>
       </c>
       <c r="J41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>108485.219018641</v>
+        <v>117059.085870709</v>
       </c>
       <c r="C42" t="n">
-        <v>85354.9640728078</v>
+        <v>76118.7746916939</v>
       </c>
       <c r="D42" t="n">
-        <v>77293.3298630205</v>
+        <v>54645.5070131843</v>
       </c>
       <c r="E42" t="n">
-        <v>129009.687988719</v>
+        <v>161026.862013732</v>
       </c>
       <c r="F42" t="n">
-        <v>138836.50364177</v>
+        <v>185432.264521319</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,10 +1728,10 @@
         <v>115934</v>
       </c>
       <c r="I42" t="n">
-        <v>-7448.78098135932</v>
+        <v>1125.0858707088</v>
       </c>
       <c r="J42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>103382.224878895</v>
+        <v>112633.167023901</v>
       </c>
       <c r="C43" t="n">
-        <v>82143.8092399913</v>
+        <v>73426.1479248551</v>
       </c>
       <c r="D43" t="n">
-        <v>74224.4517582324</v>
+        <v>52689.75710205</v>
       </c>
       <c r="E43" t="n">
-        <v>124344.39894974</v>
+        <v>157631.209485069</v>
       </c>
       <c r="F43" t="n">
-        <v>131111.943850892</v>
+        <v>181745.933970481</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,10 +1760,10 @@
         <v>110063</v>
       </c>
       <c r="I43" t="n">
-        <v>-6680.77512110537</v>
+        <v>2570.16702390103</v>
       </c>
       <c r="J43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>110122.850975506</v>
+        <v>120546.228463294</v>
       </c>
       <c r="C44" t="n">
-        <v>88415.4110892327</v>
+        <v>79532.5370594358</v>
       </c>
       <c r="D44" t="n">
-        <v>80055.0313265809</v>
+        <v>59792.8977093655</v>
       </c>
       <c r="E44" t="n">
-        <v>131423.121476822</v>
+        <v>164337.235084108</v>
       </c>
       <c r="F44" t="n">
-        <v>143480.930720971</v>
+        <v>196412.135131125</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>125116</v>
       </c>
       <c r="I44" t="n">
-        <v>-14993.1490244939</v>
+        <v>-4569.7715367062</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>110309.135126637</v>
+        <v>119413.559726715</v>
       </c>
       <c r="C45" t="n">
-        <v>87179.7553038012</v>
+        <v>77475.4480083172</v>
       </c>
       <c r="D45" t="n">
-        <v>74282.9219437726</v>
+        <v>59350.7236115787</v>
       </c>
       <c r="E45" t="n">
-        <v>130665.111275108</v>
+        <v>164078.909187761</v>
       </c>
       <c r="F45" t="n">
-        <v>141041.237065254</v>
+        <v>187617.285177594</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>138875</v>
       </c>
       <c r="I45" t="n">
-        <v>-28565.8648733634</v>
+        <v>-19461.440273285</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>101628.917964141</v>
+        <v>111391.621822883</v>
       </c>
       <c r="C46" t="n">
-        <v>79589.5377616692</v>
+        <v>69112.9875142308</v>
       </c>
       <c r="D46" t="n">
-        <v>70685.6015469781</v>
+        <v>42678.1866222032</v>
       </c>
       <c r="E46" t="n">
-        <v>124642.648280454</v>
+        <v>157876.176342599</v>
       </c>
       <c r="F46" t="n">
-        <v>134723.36622913</v>
+        <v>183033.954193884</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>123495</v>
       </c>
       <c r="I46" t="n">
-        <v>-21866.0820358591</v>
+        <v>-12103.3781771168</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>99781.9512549248</v>
+        <v>108842.060909184</v>
       </c>
       <c r="C47" t="n">
-        <v>77995.4871788927</v>
+        <v>64246.4214550968</v>
       </c>
       <c r="D47" t="n">
-        <v>69524.5266199635</v>
+        <v>42313.4186782468</v>
       </c>
       <c r="E47" t="n">
-        <v>121378.623146104</v>
+        <v>157241.131615181</v>
       </c>
       <c r="F47" t="n">
-        <v>126534.168757248</v>
+        <v>184043.461851871</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>129041</v>
       </c>
       <c r="I47" t="n">
-        <v>-29259.0487450752</v>
+        <v>-20198.9390908159</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>102889.955110836</v>
+        <v>113563.558369186</v>
       </c>
       <c r="C48" t="n">
-        <v>80882.4976455636</v>
+        <v>67248.7045682294</v>
       </c>
       <c r="D48" t="n">
-        <v>67650.8517719895</v>
+        <v>48062.2012637062</v>
       </c>
       <c r="E48" t="n">
-        <v>125223.932419729</v>
+        <v>161487.208370463</v>
       </c>
       <c r="F48" t="n">
-        <v>133267.060807457</v>
+        <v>194947.349479195</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>132270</v>
       </c>
       <c r="I48" t="n">
-        <v>-29380.0448891643</v>
+        <v>-18706.4416308138</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>102882.710031093</v>
+        <v>112491.000370859</v>
       </c>
       <c r="C49" t="n">
-        <v>77486.6589292991</v>
+        <v>66790.7541745103</v>
       </c>
       <c r="D49" t="n">
-        <v>68554.5166524884</v>
+        <v>45904.0732986247</v>
       </c>
       <c r="E49" t="n">
-        <v>125484.077976405</v>
+        <v>163127.498064393</v>
       </c>
       <c r="F49" t="n">
-        <v>133908.02542442</v>
+        <v>192974.101044782</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>121415</v>
       </c>
       <c r="I49" t="n">
-        <v>-18532.2899689066</v>
+        <v>-8923.99962914083</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/Hepatitis B.xlsx
+++ b/outcome/appendix/forecast/Hepatitis B.xlsx
@@ -430,16 +430,16 @@
         <v>102855.48960668</v>
       </c>
       <c r="C2" t="n">
-        <v>94545.6313546581</v>
+        <v>94545.6313546595</v>
       </c>
       <c r="D2" t="n">
-        <v>88168.6253009657</v>
+        <v>88168.6253009652</v>
       </c>
       <c r="E2" t="n">
-        <v>111771.543070509</v>
+        <v>111771.543070506</v>
       </c>
       <c r="F2" t="n">
-        <v>115630.499862105</v>
+        <v>115630.499862103</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>91026</v>
       </c>
       <c r="I2" t="n">
-        <v>11829.4896066795</v>
+        <v>11829.4896066797</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>96769.3029771241</v>
+        <v>96769.3029771242</v>
       </c>
       <c r="C3" t="n">
-        <v>89035.3034864326</v>
+        <v>89035.3034864311</v>
       </c>
       <c r="D3" t="n">
-        <v>83221.0268413642</v>
+        <v>83221.0268413657</v>
       </c>
       <c r="E3" t="n">
-        <v>105144.233021894</v>
+        <v>105144.233021897</v>
       </c>
       <c r="F3" t="n">
-        <v>111378.708729209</v>
+        <v>111378.70872921</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>51506</v>
       </c>
       <c r="I3" t="n">
-        <v>45263.3029771241</v>
+        <v>45263.3029771242</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -497,13 +497,13 @@
         <v>109446.828502765</v>
       </c>
       <c r="D4" t="n">
-        <v>107397.729426534</v>
+        <v>107397.729426531</v>
       </c>
       <c r="E4" t="n">
-        <v>128640.10968994</v>
+        <v>128640.109689942</v>
       </c>
       <c r="F4" t="n">
-        <v>134762.696167833</v>
+        <v>134762.696167832</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>88150</v>
       </c>
       <c r="I4" t="n">
-        <v>30773.9333857748</v>
+        <v>30773.9333857749</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>109019.323264031</v>
+        <v>109019.323264032</v>
       </c>
       <c r="C5" t="n">
-        <v>99024.167023744</v>
+        <v>99024.1670237488</v>
       </c>
       <c r="D5" t="n">
-        <v>95770.278594189</v>
+        <v>95770.2785941933</v>
       </c>
       <c r="E5" t="n">
-        <v>118927.045758533</v>
+        <v>118927.04575854</v>
       </c>
       <c r="F5" t="n">
-        <v>124087.253161202</v>
+        <v>124087.253161207</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>101262</v>
       </c>
       <c r="I5" t="n">
-        <v>7757.32326403141</v>
+        <v>7757.3232640316</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -558,16 +558,16 @@
         <v>108729.238482119</v>
       </c>
       <c r="C6" t="n">
-        <v>99856.7410351065</v>
+        <v>99856.7410351061</v>
       </c>
       <c r="D6" t="n">
-        <v>94715.3706960951</v>
+        <v>94715.37069609</v>
       </c>
       <c r="E6" t="n">
-        <v>118565.797990462</v>
+        <v>118565.797990463</v>
       </c>
       <c r="F6" t="n">
-        <v>124352.199357691</v>
+        <v>124352.199357694</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>97651</v>
       </c>
       <c r="I6" t="n">
-        <v>11078.2384821188</v>
+        <v>11078.238482119</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>103425.502534786</v>
+        <v>103425.502534787</v>
       </c>
       <c r="C7" t="n">
-        <v>93339.4309296179</v>
+        <v>93339.4309296156</v>
       </c>
       <c r="D7" t="n">
-        <v>88345.0048662837</v>
+        <v>88345.0048662824</v>
       </c>
       <c r="E7" t="n">
-        <v>113333.82259326</v>
+        <v>113333.822593267</v>
       </c>
       <c r="F7" t="n">
-        <v>119130.88772717</v>
+        <v>119130.887727163</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>99319</v>
       </c>
       <c r="I7" t="n">
-        <v>4106.50253478646</v>
+        <v>4106.50253478663</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -622,16 +622,16 @@
         <v>111812.05610949</v>
       </c>
       <c r="C8" t="n">
-        <v>101094.027611005</v>
+        <v>101094.027611006</v>
       </c>
       <c r="D8" t="n">
-        <v>94905.9084388076</v>
+        <v>94905.9084388055</v>
       </c>
       <c r="E8" t="n">
-        <v>124196.42373589</v>
+        <v>124196.423735884</v>
       </c>
       <c r="F8" t="n">
-        <v>129230.230245539</v>
+        <v>129230.23024554</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>102304</v>
       </c>
       <c r="I8" t="n">
-        <v>9508.05610949025</v>
+        <v>9508.05610949046</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>110966.128881173</v>
+        <v>110966.128881174</v>
       </c>
       <c r="C9" t="n">
-        <v>98177.517937482</v>
+        <v>98177.5179374849</v>
       </c>
       <c r="D9" t="n">
-        <v>91769.3732579099</v>
+        <v>91769.3732579064</v>
       </c>
       <c r="E9" t="n">
-        <v>122261.613170743</v>
+        <v>122261.613170739</v>
       </c>
       <c r="F9" t="n">
-        <v>129120.300658095</v>
+        <v>129120.300658093</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>102304</v>
       </c>
       <c r="I9" t="n">
-        <v>8662.12888117337</v>
+        <v>8662.12888117353</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -686,16 +686,16 @@
         <v>102673.85618125</v>
       </c>
       <c r="C10" t="n">
-        <v>91858.3891927977</v>
+        <v>91858.3891928002</v>
       </c>
       <c r="D10" t="n">
-        <v>84901.6526292986</v>
+        <v>84901.6526292988</v>
       </c>
       <c r="E10" t="n">
-        <v>113452.537412751</v>
+        <v>113452.537412753</v>
       </c>
       <c r="F10" t="n">
-        <v>121509.035328911</v>
+        <v>121509.035328908</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>105377</v>
       </c>
       <c r="I10" t="n">
-        <v>-2703.14381874999</v>
+        <v>-2703.14381874977</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -718,16 +718,16 @@
         <v>100285.478811365</v>
       </c>
       <c r="C11" t="n">
-        <v>87909.606125913</v>
+        <v>87909.6061259172</v>
       </c>
       <c r="D11" t="n">
-        <v>80707.9960563916</v>
+        <v>80707.9960563935</v>
       </c>
       <c r="E11" t="n">
-        <v>112831.780091194</v>
+        <v>112831.780091196</v>
       </c>
       <c r="F11" t="n">
-        <v>119257.431496013</v>
+        <v>119257.431496015</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>95633</v>
       </c>
       <c r="I11" t="n">
-        <v>4652.47881136477</v>
+        <v>4652.478811365</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -750,16 +750,16 @@
         <v>104388.917935827</v>
       </c>
       <c r="C12" t="n">
-        <v>90738.7396279182</v>
+        <v>90738.739627915</v>
       </c>
       <c r="D12" t="n">
-        <v>83778.825331894</v>
+        <v>83778.8253318937</v>
       </c>
       <c r="E12" t="n">
-        <v>115832.791056141</v>
+        <v>115832.791056138</v>
       </c>
       <c r="F12" t="n">
-        <v>124271.238008526</v>
+        <v>124271.238008524</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>100561</v>
       </c>
       <c r="I12" t="n">
-        <v>3827.91793582702</v>
+        <v>3827.91793582724</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -782,16 +782,16 @@
         <v>103749.332302457</v>
       </c>
       <c r="C13" t="n">
-        <v>90734.3318986086</v>
+        <v>90734.3318986108</v>
       </c>
       <c r="D13" t="n">
-        <v>83714.7705892158</v>
+        <v>83714.7705892157</v>
       </c>
       <c r="E13" t="n">
-        <v>116951.404333122</v>
+        <v>116951.40433312</v>
       </c>
       <c r="F13" t="n">
-        <v>126954.955937118</v>
+        <v>126954.955937115</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>100209</v>
       </c>
       <c r="I13" t="n">
-        <v>3540.33230245684</v>
+        <v>3540.33230245701</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -814,16 +814,16 @@
         <v>106472.374968391</v>
       </c>
       <c r="C14" t="n">
-        <v>90291.1189329094</v>
+        <v>90291.118932906</v>
       </c>
       <c r="D14" t="n">
-        <v>82119.9283898908</v>
+        <v>82119.9283898928</v>
       </c>
       <c r="E14" t="n">
         <v>121656.716031142</v>
       </c>
       <c r="F14" t="n">
-        <v>132736.224078036</v>
+        <v>132736.22407804</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>98257</v>
       </c>
       <c r="I14" t="n">
-        <v>8215.37496839122</v>
+        <v>8215.37496839144</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>99334.3549681137</v>
+        <v>99334.3549681139</v>
       </c>
       <c r="C15" t="n">
-        <v>84553.5774453281</v>
+        <v>84553.5774453334</v>
       </c>
       <c r="D15" t="n">
-        <v>77419.9851119718</v>
+        <v>77419.9851119736</v>
       </c>
       <c r="E15" t="n">
-        <v>117279.425077101</v>
+        <v>117279.425077105</v>
       </c>
       <c r="F15" t="n">
-        <v>124504.722426551</v>
+        <v>124504.72242655</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>83014</v>
       </c>
       <c r="I15" t="n">
-        <v>16320.3549681137</v>
+        <v>16320.3549681139</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -878,16 +878,16 @@
         <v>122087.518417517</v>
       </c>
       <c r="C16" t="n">
-        <v>105251.76702022</v>
+        <v>105251.767020219</v>
       </c>
       <c r="D16" t="n">
-        <v>97426.7197662845</v>
+        <v>97426.7197662909</v>
       </c>
       <c r="E16" t="n">
         <v>137792.389122537</v>
       </c>
       <c r="F16" t="n">
-        <v>152486.708888809</v>
+        <v>152486.708888804</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>119423</v>
       </c>
       <c r="I16" t="n">
-        <v>2664.51841751709</v>
+        <v>2664.51841751735</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>112153.465569077</v>
+        <v>112153.465569078</v>
       </c>
       <c r="C17" t="n">
-        <v>94736.3943716964</v>
+        <v>94736.3943716945</v>
       </c>
       <c r="D17" t="n">
-        <v>85997.2706252041</v>
+        <v>85997.2706252067</v>
       </c>
       <c r="E17" t="n">
-        <v>130010.898117276</v>
+        <v>130010.898117273</v>
       </c>
       <c r="F17" t="n">
-        <v>137015.139620256</v>
+        <v>137015.139620254</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>110385</v>
       </c>
       <c r="I17" t="n">
-        <v>1768.46556907748</v>
+        <v>1768.46556907776</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -942,16 +942,16 @@
         <v>111457.83883838</v>
       </c>
       <c r="C18" t="n">
-        <v>95129.7056444657</v>
+        <v>95129.7056444654</v>
       </c>
       <c r="D18" t="n">
-        <v>85693.2828309759</v>
+        <v>85693.2828309743</v>
       </c>
       <c r="E18" t="n">
-        <v>130113.124449141</v>
+        <v>130113.124449136</v>
       </c>
       <c r="F18" t="n">
-        <v>142029.15104137</v>
+        <v>142029.151041372</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>105393</v>
       </c>
       <c r="I18" t="n">
-        <v>6064.83883838019</v>
+        <v>6064.83883838047</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>107532.55018112</v>
+        <v>107532.550181121</v>
       </c>
       <c r="C19" t="n">
-        <v>89329.2259061303</v>
+        <v>89329.2259061327</v>
       </c>
       <c r="D19" t="n">
-        <v>81851.4127675942</v>
+        <v>81851.4127675949</v>
       </c>
       <c r="E19" t="n">
-        <v>126692.531310178</v>
+        <v>126692.531310173</v>
       </c>
       <c r="F19" t="n">
-        <v>134454.029071999</v>
+        <v>134454.029071995</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>101633</v>
       </c>
       <c r="I19" t="n">
-        <v>5899.55018112036</v>
+        <v>5899.55018112063</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1006,16 +1006,16 @@
         <v>114494.206701814</v>
       </c>
       <c r="C20" t="n">
-        <v>96004.7891021886</v>
+        <v>96004.7891021937</v>
       </c>
       <c r="D20" t="n">
-        <v>83203.1473507648</v>
+        <v>83203.1473507721</v>
       </c>
       <c r="E20" t="n">
-        <v>135112.28120533</v>
+        <v>135112.281205332</v>
       </c>
       <c r="F20" t="n">
-        <v>148817.646485585</v>
+        <v>148817.646485591</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>112287</v>
       </c>
       <c r="I20" t="n">
-        <v>2207.20670181391</v>
+        <v>2207.20670181421</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1038,16 +1038,16 @@
         <v>113868.237802657</v>
       </c>
       <c r="C21" t="n">
-        <v>92029.3775358818</v>
+        <v>92029.3775358809</v>
       </c>
       <c r="D21" t="n">
-        <v>85207.7203128221</v>
+        <v>85207.7203128269</v>
       </c>
       <c r="E21" t="n">
-        <v>136279.48806465</v>
+        <v>136279.488064651</v>
       </c>
       <c r="F21" t="n">
-        <v>148467.825070414</v>
+        <v>148467.825070411</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>102061</v>
       </c>
       <c r="I21" t="n">
-        <v>11807.2378026569</v>
+        <v>11807.2378026572</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1070,13 +1070,13 @@
         <v>105203.250672422</v>
       </c>
       <c r="C22" t="n">
-        <v>84553.9848140555</v>
+        <v>84553.9848140593</v>
       </c>
       <c r="D22" t="n">
-        <v>75040.8720966134</v>
+        <v>75040.8720966129</v>
       </c>
       <c r="E22" t="n">
-        <v>129354.290855708</v>
+        <v>129354.290855699</v>
       </c>
       <c r="F22" t="n">
         <v>137142.84604609</v>
@@ -1088,7 +1088,7 @@
         <v>101701</v>
       </c>
       <c r="I22" t="n">
-        <v>3502.25067242158</v>
+        <v>3502.25067242184</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1102,16 +1102,16 @@
         <v>103358.086176318</v>
       </c>
       <c r="C23" t="n">
-        <v>83445.1906883486</v>
+        <v>83445.1906883539</v>
       </c>
       <c r="D23" t="n">
-        <v>67536.3940203177</v>
+        <v>67536.3940203284</v>
       </c>
       <c r="E23" t="n">
-        <v>124146.161509703</v>
+        <v>124146.161509699</v>
       </c>
       <c r="F23" t="n">
-        <v>139018.429109161</v>
+        <v>139018.429109167</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>95942</v>
       </c>
       <c r="I23" t="n">
-        <v>7416.0861763179</v>
+        <v>7416.08617631816</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1134,16 +1134,16 @@
         <v>107965.815643777</v>
       </c>
       <c r="C24" t="n">
-        <v>84480.1002632519</v>
+        <v>84480.1002632539</v>
       </c>
       <c r="D24" t="n">
-        <v>73887.4950512752</v>
+        <v>73887.4950512877</v>
       </c>
       <c r="E24" t="n">
-        <v>131271.746991127</v>
+        <v>131271.746991121</v>
       </c>
       <c r="F24" t="n">
-        <v>141982.674937583</v>
+        <v>141982.674937589</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>102598</v>
       </c>
       <c r="I24" t="n">
-        <v>5367.81564377691</v>
+        <v>5367.81564377714</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1166,16 +1166,16 @@
         <v>106895.2297621</v>
       </c>
       <c r="C25" t="n">
-        <v>81986.7908473369</v>
+        <v>81986.7908473381</v>
       </c>
       <c r="D25" t="n">
-        <v>72913.1562274702</v>
+        <v>72913.1562274682</v>
       </c>
       <c r="E25" t="n">
-        <v>130765.096472799</v>
+        <v>130765.096472798</v>
       </c>
       <c r="F25" t="n">
-        <v>147823.014491119</v>
+        <v>147823.014491116</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>108157</v>
       </c>
       <c r="I25" t="n">
-        <v>-1261.77023790016</v>
+        <v>-1261.77023789992</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1198,16 +1198,16 @@
         <v>109181.831376372</v>
       </c>
       <c r="C26" t="n">
-        <v>81782.3597199488</v>
+        <v>81782.3597199509</v>
       </c>
       <c r="D26" t="n">
-        <v>72573.0833242989</v>
+        <v>72573.0833243053</v>
       </c>
       <c r="E26" t="n">
-        <v>134359.541190445</v>
+        <v>134359.541190441</v>
       </c>
       <c r="F26" t="n">
-        <v>151232.942334719</v>
+        <v>151232.942334717</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>109531</v>
       </c>
       <c r="I26" t="n">
-        <v>-349.168623627993</v>
+        <v>-349.16862362776</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1230,16 +1230,16 @@
         <v>101393.061894587</v>
       </c>
       <c r="C27" t="n">
-        <v>78968.1339530143</v>
+        <v>78968.1339530183</v>
       </c>
       <c r="D27" t="n">
-        <v>60987.8893832256</v>
+        <v>60987.889383237</v>
       </c>
       <c r="E27" t="n">
-        <v>127434.256324616</v>
+        <v>127434.256324615</v>
       </c>
       <c r="F27" t="n">
-        <v>141695.197982122</v>
+        <v>141695.197982119</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>96787</v>
       </c>
       <c r="I27" t="n">
-        <v>4606.06189458702</v>
+        <v>4606.06189458726</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1262,16 +1262,16 @@
         <v>124904.649546836</v>
       </c>
       <c r="C28" t="n">
-        <v>97174.6364300149</v>
+        <v>97174.6364300207</v>
       </c>
       <c r="D28" t="n">
-        <v>84449.1404414928</v>
+        <v>84449.1404414905</v>
       </c>
       <c r="E28" t="n">
-        <v>152456.366628937</v>
+        <v>152456.366628936</v>
       </c>
       <c r="F28" t="n">
-        <v>167826.820467099</v>
+        <v>167826.820467101</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>114003</v>
       </c>
       <c r="I28" t="n">
-        <v>10901.6495468357</v>
+        <v>10901.6495468359</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1294,16 +1294,16 @@
         <v>114508.819070649</v>
       </c>
       <c r="C29" t="n">
-        <v>87811.7023134177</v>
+        <v>87811.7023134173</v>
       </c>
       <c r="D29" t="n">
-        <v>74175.4405646113</v>
+        <v>74175.4405646146</v>
       </c>
       <c r="E29" t="n">
-        <v>144597.691185608</v>
+        <v>144597.691185606</v>
       </c>
       <c r="F29" t="n">
-        <v>164118.16586428</v>
+        <v>164118.165864277</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>95933</v>
       </c>
       <c r="I29" t="n">
-        <v>18575.8190706492</v>
+        <v>18575.8190706494</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>114231.015174692</v>
+        <v>114231.015174693</v>
       </c>
       <c r="C30" t="n">
-        <v>86398.6263368048</v>
+        <v>86398.6263368112</v>
       </c>
       <c r="D30" t="n">
-        <v>74954.2097823143</v>
+        <v>74954.2097823214</v>
       </c>
       <c r="E30" t="n">
-        <v>141584.200502736</v>
+        <v>141584.200502732</v>
       </c>
       <c r="F30" t="n">
-        <v>162976.694518501</v>
+        <v>162976.694518494</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>102912</v>
       </c>
       <c r="I30" t="n">
-        <v>11319.0151746924</v>
+        <v>11319.0151746926</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1358,16 +1358,16 @@
         <v>109360.477182674</v>
       </c>
       <c r="C31" t="n">
-        <v>80315.0683373107</v>
+        <v>80315.0683373193</v>
       </c>
       <c r="D31" t="n">
-        <v>63769.6031257456</v>
+        <v>63769.6031257483</v>
       </c>
       <c r="E31" t="n">
-        <v>139150.386841325</v>
+        <v>139150.386841314</v>
       </c>
       <c r="F31" t="n">
-        <v>160183.500254554</v>
+        <v>160183.500254546</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>106846</v>
       </c>
       <c r="I31" t="n">
-        <v>2514.47718267377</v>
+        <v>2514.47718267392</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1390,16 +1390,16 @@
         <v>116743.408109713</v>
       </c>
       <c r="C32" t="n">
-        <v>89313.6286061375</v>
+        <v>89313.6286061352</v>
       </c>
       <c r="D32" t="n">
-        <v>70070.5948471442</v>
+        <v>70070.5948471438</v>
       </c>
       <c r="E32" t="n">
-        <v>148723.757201297</v>
+        <v>148723.757201303</v>
       </c>
       <c r="F32" t="n">
-        <v>166244.861983806</v>
+        <v>166244.861983803</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>112648</v>
       </c>
       <c r="I32" t="n">
-        <v>4095.40810971333</v>
+        <v>4095.40810971343</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1422,13 +1422,13 @@
         <v>116350.943315835</v>
       </c>
       <c r="C33" t="n">
-        <v>84958.9065940734</v>
+        <v>84958.9065940751</v>
       </c>
       <c r="D33" t="n">
-        <v>72662.6186683724</v>
+        <v>72662.6186683793</v>
       </c>
       <c r="E33" t="n">
-        <v>146633.47317224</v>
+        <v>146633.473172231</v>
       </c>
       <c r="F33" t="n">
         <v>165208.643220501</v>
@@ -1440,7 +1440,7 @@
         <v>115375</v>
       </c>
       <c r="I33" t="n">
-        <v>975.943315834913</v>
+        <v>975.943315835073</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1454,13 +1454,13 @@
         <v>108320.591204846</v>
       </c>
       <c r="C34" t="n">
-        <v>74874.2487846824</v>
+        <v>74874.2487846842</v>
       </c>
       <c r="D34" t="n">
-        <v>58885.1823945394</v>
+        <v>58885.182394543</v>
       </c>
       <c r="E34" t="n">
-        <v>143521.175818152</v>
+        <v>143521.175818146</v>
       </c>
       <c r="F34" t="n">
         <v>160379.718134346</v>
@@ -1472,7 +1472,7 @@
         <v>101083</v>
       </c>
       <c r="I34" t="n">
-        <v>7237.59120484577</v>
+        <v>7237.59120484593</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>106415.603495019</v>
+        <v>106415.60349502</v>
       </c>
       <c r="C35" t="n">
-        <v>75216.8456377556</v>
+        <v>75216.8456377503</v>
       </c>
       <c r="D35" t="n">
-        <v>51559.9809046811</v>
+        <v>51559.9809046833</v>
       </c>
       <c r="E35" t="n">
-        <v>138270.810297314</v>
+        <v>138270.810297312</v>
       </c>
       <c r="F35" t="n">
-        <v>167474.013642746</v>
+        <v>167474.013642748</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>90015</v>
       </c>
       <c r="I35" t="n">
-        <v>16400.6034950195</v>
+        <v>16400.6034950196</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1518,16 +1518,16 @@
         <v>110665.157613004</v>
       </c>
       <c r="C36" t="n">
-        <v>76615.7108246738</v>
+        <v>76615.7108246708</v>
       </c>
       <c r="D36" t="n">
-        <v>53081.0899038069</v>
+        <v>53081.08990381</v>
       </c>
       <c r="E36" t="n">
-        <v>145611.563566161</v>
+        <v>145611.563566154</v>
       </c>
       <c r="F36" t="n">
-        <v>165242.647907937</v>
+        <v>165242.647907935</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>86371</v>
       </c>
       <c r="I36" t="n">
-        <v>24294.157613004</v>
+        <v>24294.1576130041</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1550,16 +1550,16 @@
         <v>109088.082486108</v>
       </c>
       <c r="C37" t="n">
-        <v>73259.7496657782</v>
+        <v>73259.7496657811</v>
       </c>
       <c r="D37" t="n">
-        <v>56480.0299019739</v>
+        <v>56480.0299019878</v>
       </c>
       <c r="E37" t="n">
-        <v>146753.995641752</v>
+        <v>146753.995641745</v>
       </c>
       <c r="F37" t="n">
-        <v>164903.435773178</v>
+        <v>164903.435773169</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>59498</v>
       </c>
       <c r="I37" t="n">
-        <v>49590.0824861079</v>
+        <v>49590.082486108</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1582,16 +1582,16 @@
         <v>111279.256620922</v>
       </c>
       <c r="C38" t="n">
-        <v>78239.7995467329</v>
+        <v>78239.7995467309</v>
       </c>
       <c r="D38" t="n">
-        <v>57807.185719835</v>
+        <v>57807.185719847</v>
       </c>
       <c r="E38" t="n">
-        <v>149230.279073719</v>
+        <v>149230.279073713</v>
       </c>
       <c r="F38" t="n">
-        <v>171373.212717534</v>
+        <v>171373.21271753</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>74790</v>
       </c>
       <c r="I38" t="n">
-        <v>36489.2566209215</v>
+        <v>36489.2566209216</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1614,16 +1614,16 @@
         <v>104641.577462856</v>
       </c>
       <c r="C39" t="n">
-        <v>69043.5325801705</v>
+        <v>69043.532580171</v>
       </c>
       <c r="D39" t="n">
-        <v>52268.6356173657</v>
+        <v>52268.6356173675</v>
       </c>
       <c r="E39" t="n">
-        <v>142290.915446885</v>
+        <v>142290.915446882</v>
       </c>
       <c r="F39" t="n">
-        <v>170154.707704215</v>
+        <v>170154.707704206</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>127120.435732357</v>
+        <v>127120.435732358</v>
       </c>
       <c r="C40" t="n">
-        <v>87421.6932631557</v>
+        <v>87421.6932631642</v>
       </c>
       <c r="D40" t="n">
-        <v>73908.7793532898</v>
+        <v>73908.7793532958</v>
       </c>
       <c r="E40" t="n">
-        <v>167924.312170157</v>
+        <v>167924.312170154</v>
       </c>
       <c r="F40" t="n">
-        <v>185375.022891668</v>
+        <v>185375.022891663</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>126932</v>
       </c>
       <c r="I40" t="n">
-        <v>188.435732357451</v>
+        <v>188.435732357553</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1678,16 +1678,16 @@
         <v>117594.66790439</v>
       </c>
       <c r="C41" t="n">
-        <v>77925.7947249579</v>
+        <v>77925.7947249614</v>
       </c>
       <c r="D41" t="n">
-        <v>60320.4701274804</v>
+        <v>60320.4701274915</v>
       </c>
       <c r="E41" t="n">
-        <v>158155.069427757</v>
+        <v>158155.069427752</v>
       </c>
       <c r="F41" t="n">
-        <v>183895.840525567</v>
+        <v>183895.840525557</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>116400</v>
       </c>
       <c r="I41" t="n">
-        <v>1194.66790438964</v>
+        <v>1194.66790438973</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1710,16 +1710,16 @@
         <v>117059.085870709</v>
       </c>
       <c r="C42" t="n">
-        <v>76118.7746916939</v>
+        <v>76118.7746916983</v>
       </c>
       <c r="D42" t="n">
-        <v>54645.5070131843</v>
+        <v>54645.5070131978</v>
       </c>
       <c r="E42" t="n">
         <v>161026.862013732</v>
       </c>
       <c r="F42" t="n">
-        <v>185432.264521319</v>
+        <v>185432.264521314</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>115934</v>
       </c>
       <c r="I42" t="n">
-        <v>1125.0858707088</v>
+        <v>1125.08587070885</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1742,16 +1742,16 @@
         <v>112633.167023901</v>
       </c>
       <c r="C43" t="n">
-        <v>73426.1479248551</v>
+        <v>73426.1479248574</v>
       </c>
       <c r="D43" t="n">
-        <v>52689.75710205</v>
+        <v>52689.7571020578</v>
       </c>
       <c r="E43" t="n">
-        <v>157631.209485069</v>
+        <v>157631.20948506</v>
       </c>
       <c r="F43" t="n">
-        <v>181745.933970481</v>
+        <v>181745.933970471</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>110063</v>
       </c>
       <c r="I43" t="n">
-        <v>2570.16702390103</v>
+        <v>2570.16702390106</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1774,16 +1774,16 @@
         <v>120546.228463294</v>
       </c>
       <c r="C44" t="n">
-        <v>79532.5370594358</v>
+        <v>79532.5370594449</v>
       </c>
       <c r="D44" t="n">
-        <v>59792.8977093655</v>
+        <v>59792.8977093785</v>
       </c>
       <c r="E44" t="n">
-        <v>164337.235084108</v>
+        <v>164337.235084107</v>
       </c>
       <c r="F44" t="n">
-        <v>196412.135131125</v>
+        <v>196412.135131116</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>125116</v>
       </c>
       <c r="I44" t="n">
-        <v>-4569.7715367062</v>
+        <v>-4569.77153670616</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1806,16 +1806,16 @@
         <v>119413.559726715</v>
       </c>
       <c r="C45" t="n">
-        <v>77475.4480083172</v>
+        <v>77475.4480083228</v>
       </c>
       <c r="D45" t="n">
-        <v>59350.7236115787</v>
+        <v>59350.7236115826</v>
       </c>
       <c r="E45" t="n">
-        <v>164078.909187761</v>
+        <v>164078.909187755</v>
       </c>
       <c r="F45" t="n">
-        <v>187617.285177594</v>
+        <v>187617.285177589</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1838,16 +1838,16 @@
         <v>111391.621822883</v>
       </c>
       <c r="C46" t="n">
-        <v>69112.9875142308</v>
+        <v>69112.9875142356</v>
       </c>
       <c r="D46" t="n">
-        <v>42678.1866222032</v>
+        <v>42678.1866222115</v>
       </c>
       <c r="E46" t="n">
-        <v>157876.176342599</v>
+        <v>157876.176342592</v>
       </c>
       <c r="F46" t="n">
-        <v>183033.954193884</v>
+        <v>183033.954193876</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1870,16 +1870,16 @@
         <v>108842.060909184</v>
       </c>
       <c r="C47" t="n">
-        <v>64246.4214550968</v>
+        <v>64246.421455095</v>
       </c>
       <c r="D47" t="n">
-        <v>42313.4186782468</v>
+        <v>42313.4186782615</v>
       </c>
       <c r="E47" t="n">
-        <v>157241.131615181</v>
+        <v>157241.13161517</v>
       </c>
       <c r="F47" t="n">
-        <v>184043.461851871</v>
+        <v>184043.461851865</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1902,16 +1902,16 @@
         <v>113563.558369186</v>
       </c>
       <c r="C48" t="n">
-        <v>67248.7045682294</v>
+        <v>67248.7045682383</v>
       </c>
       <c r="D48" t="n">
-        <v>48062.2012637062</v>
+        <v>48062.2012637222</v>
       </c>
       <c r="E48" t="n">
-        <v>161487.208370463</v>
+        <v>161487.208370457</v>
       </c>
       <c r="F48" t="n">
-        <v>194947.349479195</v>
+        <v>194947.349479186</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1934,16 +1934,16 @@
         <v>112491.000370859</v>
       </c>
       <c r="C49" t="n">
-        <v>66790.7541745103</v>
+        <v>66790.7541745117</v>
       </c>
       <c r="D49" t="n">
-        <v>45904.0732986247</v>
+        <v>45904.0732986358</v>
       </c>
       <c r="E49" t="n">
-        <v>163127.498064393</v>
+        <v>163127.498064387</v>
       </c>
       <c r="F49" t="n">
-        <v>192974.101044782</v>
+        <v>192974.101044771</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>121415</v>
       </c>
       <c r="I49" t="n">
-        <v>-8923.99962914083</v>
+        <v>-8923.99962914086</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>

--- a/outcome/appendix/forecast/Hepatitis B.xlsx
+++ b/outcome/appendix/forecast/Hepatitis B.xlsx
@@ -430,16 +430,16 @@
         <v>102855.48960668</v>
       </c>
       <c r="C2" t="n">
-        <v>94545.6313546595</v>
+        <v>94545.6313546587</v>
       </c>
       <c r="D2" t="n">
-        <v>88168.6253009652</v>
+        <v>88168.6253009666</v>
       </c>
       <c r="E2" t="n">
-        <v>111771.543070506</v>
+        <v>111771.543070508</v>
       </c>
       <c r="F2" t="n">
-        <v>115630.499862103</v>
+        <v>115630.499862104</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>91026</v>
       </c>
       <c r="I2" t="n">
-        <v>11829.4896066797</v>
+        <v>11829.4896066795</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>96769.3029771242</v>
+        <v>96769.3029771241</v>
       </c>
       <c r="C3" t="n">
-        <v>89035.3034864311</v>
+        <v>89035.3034864418</v>
       </c>
       <c r="D3" t="n">
-        <v>83221.0268413657</v>
+        <v>83221.0268413635</v>
       </c>
       <c r="E3" t="n">
-        <v>105144.233021897</v>
+        <v>105144.233021896</v>
       </c>
       <c r="F3" t="n">
-        <v>111378.70872921</v>
+        <v>111378.708729209</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>51506</v>
       </c>
       <c r="I3" t="n">
-        <v>45263.3029771242</v>
+        <v>45263.3029771241</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -494,16 +494,16 @@
         <v>118923.933385775</v>
       </c>
       <c r="C4" t="n">
-        <v>109446.828502765</v>
+        <v>109446.828502762</v>
       </c>
       <c r="D4" t="n">
-        <v>107397.729426531</v>
+        <v>107397.72942653</v>
       </c>
       <c r="E4" t="n">
-        <v>128640.109689942</v>
+        <v>128640.10968994</v>
       </c>
       <c r="F4" t="n">
-        <v>134762.696167832</v>
+        <v>134762.696167835</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>88150</v>
       </c>
       <c r="I4" t="n">
-        <v>30773.9333857749</v>
+        <v>30773.9333857748</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>109019.323264032</v>
+        <v>109019.323264031</v>
       </c>
       <c r="C5" t="n">
-        <v>99024.1670237488</v>
+        <v>99024.1670237458</v>
       </c>
       <c r="D5" t="n">
-        <v>95770.2785941933</v>
+        <v>95770.2785941925</v>
       </c>
       <c r="E5" t="n">
-        <v>118927.04575854</v>
+        <v>118927.045758531</v>
       </c>
       <c r="F5" t="n">
-        <v>124087.253161207</v>
+        <v>124087.253161204</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>101262</v>
       </c>
       <c r="I5" t="n">
-        <v>7757.3232640316</v>
+        <v>7757.32326403138</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -558,16 +558,16 @@
         <v>108729.238482119</v>
       </c>
       <c r="C6" t="n">
-        <v>99856.7410351061</v>
+        <v>99856.7410351044</v>
       </c>
       <c r="D6" t="n">
-        <v>94715.37069609</v>
+        <v>94715.3706960918</v>
       </c>
       <c r="E6" t="n">
-        <v>118565.797990463</v>
+        <v>118565.797990464</v>
       </c>
       <c r="F6" t="n">
-        <v>124352.199357694</v>
+        <v>124352.199357692</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>97651</v>
       </c>
       <c r="I6" t="n">
-        <v>11078.238482119</v>
+        <v>11078.2384821188</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>103425.502534787</v>
+        <v>103425.502534786</v>
       </c>
       <c r="C7" t="n">
-        <v>93339.4309296156</v>
+        <v>93339.4309296147</v>
       </c>
       <c r="D7" t="n">
-        <v>88345.0048662824</v>
+        <v>88345.0048662884</v>
       </c>
       <c r="E7" t="n">
-        <v>113333.822593267</v>
+        <v>113333.822593265</v>
       </c>
       <c r="F7" t="n">
-        <v>119130.887727163</v>
+        <v>119130.887727166</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>99319</v>
       </c>
       <c r="I7" t="n">
-        <v>4106.50253478663</v>
+        <v>4106.50253478641</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -622,16 +622,16 @@
         <v>111812.05610949</v>
       </c>
       <c r="C8" t="n">
-        <v>101094.027611006</v>
+        <v>101094.027611007</v>
       </c>
       <c r="D8" t="n">
-        <v>94905.9084388055</v>
+        <v>94905.9084388086</v>
       </c>
       <c r="E8" t="n">
-        <v>124196.423735884</v>
+        <v>124196.423735885</v>
       </c>
       <c r="F8" t="n">
-        <v>129230.23024554</v>
+        <v>129230.230245542</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>102304</v>
       </c>
       <c r="I8" t="n">
-        <v>9508.05610949046</v>
+        <v>9508.05610949022</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>110966.128881174</v>
+        <v>110966.128881173</v>
       </c>
       <c r="C9" t="n">
-        <v>98177.5179374849</v>
+        <v>98177.517937481</v>
       </c>
       <c r="D9" t="n">
-        <v>91769.3732579064</v>
+        <v>91769.373257906</v>
       </c>
       <c r="E9" t="n">
-        <v>122261.613170739</v>
+        <v>122261.613170743</v>
       </c>
       <c r="F9" t="n">
-        <v>129120.300658093</v>
+        <v>129120.300658097</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>102304</v>
       </c>
       <c r="I9" t="n">
-        <v>8662.12888117353</v>
+        <v>8662.12888117332</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -686,16 +686,16 @@
         <v>102673.85618125</v>
       </c>
       <c r="C10" t="n">
-        <v>91858.3891928002</v>
+        <v>91858.3891928006</v>
       </c>
       <c r="D10" t="n">
-        <v>84901.6526292988</v>
+        <v>84901.6526293014</v>
       </c>
       <c r="E10" t="n">
-        <v>113452.537412753</v>
+        <v>113452.537412754</v>
       </c>
       <c r="F10" t="n">
-        <v>121509.035328908</v>
+        <v>121509.03532891</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>105377</v>
       </c>
       <c r="I10" t="n">
-        <v>-2703.14381874977</v>
+        <v>-2703.14381875</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -718,16 +718,16 @@
         <v>100285.478811365</v>
       </c>
       <c r="C11" t="n">
-        <v>87909.6061259172</v>
+        <v>87909.6061259118</v>
       </c>
       <c r="D11" t="n">
-        <v>80707.9960563935</v>
+        <v>80707.9960563944</v>
       </c>
       <c r="E11" t="n">
         <v>112831.780091196</v>
       </c>
       <c r="F11" t="n">
-        <v>119257.431496015</v>
+        <v>119257.431496017</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>95633</v>
       </c>
       <c r="I11" t="n">
-        <v>4652.478811365</v>
+        <v>4652.47881136477</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -750,16 +750,16 @@
         <v>104388.917935827</v>
       </c>
       <c r="C12" t="n">
-        <v>90738.739627915</v>
+        <v>90738.7396279183</v>
       </c>
       <c r="D12" t="n">
-        <v>83778.8253318937</v>
+        <v>83778.8253318974</v>
       </c>
       <c r="E12" t="n">
-        <v>115832.791056138</v>
+        <v>115832.791056137</v>
       </c>
       <c r="F12" t="n">
-        <v>124271.238008524</v>
+        <v>124271.238008527</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>100561</v>
       </c>
       <c r="I12" t="n">
-        <v>3827.91793582724</v>
+        <v>3827.91793582696</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -782,16 +782,16 @@
         <v>103749.332302457</v>
       </c>
       <c r="C13" t="n">
-        <v>90734.3318986108</v>
+        <v>90734.3318986093</v>
       </c>
       <c r="D13" t="n">
-        <v>83714.7705892157</v>
+        <v>83714.7705892128</v>
       </c>
       <c r="E13" t="n">
-        <v>116951.40433312</v>
+        <v>116951.404333122</v>
       </c>
       <c r="F13" t="n">
-        <v>126954.955937115</v>
+        <v>126954.955937116</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>100209</v>
       </c>
       <c r="I13" t="n">
-        <v>3540.33230245701</v>
+        <v>3540.33230245678</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -814,16 +814,16 @@
         <v>106472.374968391</v>
       </c>
       <c r="C14" t="n">
-        <v>90291.118932906</v>
+        <v>90291.1189329049</v>
       </c>
       <c r="D14" t="n">
-        <v>82119.9283898928</v>
+        <v>82119.9283898927</v>
       </c>
       <c r="E14" t="n">
-        <v>121656.716031142</v>
+        <v>121656.716031146</v>
       </c>
       <c r="F14" t="n">
-        <v>132736.22407804</v>
+        <v>132736.224078039</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>98257</v>
       </c>
       <c r="I14" t="n">
-        <v>8215.37496839144</v>
+        <v>8215.37496839116</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>99334.3549681139</v>
+        <v>99334.3549681137</v>
       </c>
       <c r="C15" t="n">
-        <v>84553.5774453334</v>
+        <v>84553.5774453312</v>
       </c>
       <c r="D15" t="n">
-        <v>77419.9851119736</v>
+        <v>77419.9851119713</v>
       </c>
       <c r="E15" t="n">
         <v>117279.425077105</v>
       </c>
       <c r="F15" t="n">
-        <v>124504.72242655</v>
+        <v>124504.722426552</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>83014</v>
       </c>
       <c r="I15" t="n">
-        <v>16320.3549681139</v>
+        <v>16320.3549681137</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -878,16 +878,16 @@
         <v>122087.518417517</v>
       </c>
       <c r="C16" t="n">
-        <v>105251.767020219</v>
+        <v>105251.76702022</v>
       </c>
       <c r="D16" t="n">
-        <v>97426.7197662909</v>
+        <v>97426.7197662836</v>
       </c>
       <c r="E16" t="n">
         <v>137792.389122537</v>
       </c>
       <c r="F16" t="n">
-        <v>152486.708888804</v>
+        <v>152486.708888805</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>119423</v>
       </c>
       <c r="I16" t="n">
-        <v>2664.51841751735</v>
+        <v>2664.51841751709</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>112153.465569078</v>
+        <v>112153.465569077</v>
       </c>
       <c r="C17" t="n">
-        <v>94736.3943716945</v>
+        <v>94736.3943716934</v>
       </c>
       <c r="D17" t="n">
-        <v>85997.2706252067</v>
+        <v>85997.2706252059</v>
       </c>
       <c r="E17" t="n">
         <v>130010.898117273</v>
       </c>
       <c r="F17" t="n">
-        <v>137015.139620254</v>
+        <v>137015.139620257</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>110385</v>
       </c>
       <c r="I17" t="n">
-        <v>1768.46556907776</v>
+        <v>1768.46556907748</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -942,16 +942,16 @@
         <v>111457.83883838</v>
       </c>
       <c r="C18" t="n">
-        <v>95129.7056444654</v>
+        <v>95129.7056444675</v>
       </c>
       <c r="D18" t="n">
-        <v>85693.2828309743</v>
+        <v>85693.2828309728</v>
       </c>
       <c r="E18" t="n">
-        <v>130113.124449136</v>
+        <v>130113.124449141</v>
       </c>
       <c r="F18" t="n">
-        <v>142029.151041372</v>
+        <v>142029.151041371</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>105393</v>
       </c>
       <c r="I18" t="n">
-        <v>6064.83883838047</v>
+        <v>6064.83883838019</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>107532.550181121</v>
+        <v>107532.55018112</v>
       </c>
       <c r="C19" t="n">
-        <v>89329.2259061327</v>
+        <v>89329.2259061336</v>
       </c>
       <c r="D19" t="n">
-        <v>81851.4127675949</v>
+        <v>81851.4127675948</v>
       </c>
       <c r="E19" t="n">
-        <v>126692.531310173</v>
+        <v>126692.531310177</v>
       </c>
       <c r="F19" t="n">
-        <v>134454.029071995</v>
+        <v>134454.029071997</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>101633</v>
       </c>
       <c r="I19" t="n">
-        <v>5899.55018112063</v>
+        <v>5899.55018112037</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1006,16 +1006,16 @@
         <v>114494.206701814</v>
       </c>
       <c r="C20" t="n">
-        <v>96004.7891021937</v>
+        <v>96004.7891021925</v>
       </c>
       <c r="D20" t="n">
-        <v>83203.1473507721</v>
+        <v>83203.1473507676</v>
       </c>
       <c r="E20" t="n">
-        <v>135112.281205332</v>
+        <v>135112.281205328</v>
       </c>
       <c r="F20" t="n">
-        <v>148817.646485591</v>
+        <v>148817.64648559</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>112287</v>
       </c>
       <c r="I20" t="n">
-        <v>2207.20670181421</v>
+        <v>2207.20670181392</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1038,16 +1038,16 @@
         <v>113868.237802657</v>
       </c>
       <c r="C21" t="n">
-        <v>92029.3775358809</v>
+        <v>92029.3775358792</v>
       </c>
       <c r="D21" t="n">
-        <v>85207.7203128269</v>
+        <v>85207.720312821</v>
       </c>
       <c r="E21" t="n">
         <v>136279.488064651</v>
       </c>
       <c r="F21" t="n">
-        <v>148467.825070411</v>
+        <v>148467.825070413</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>102061</v>
       </c>
       <c r="I21" t="n">
-        <v>11807.2378026572</v>
+        <v>11807.2378026568</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1070,13 +1070,13 @@
         <v>105203.250672422</v>
       </c>
       <c r="C22" t="n">
-        <v>84553.9848140593</v>
+        <v>84553.9848140571</v>
       </c>
       <c r="D22" t="n">
-        <v>75040.8720966129</v>
+        <v>75040.8720966149</v>
       </c>
       <c r="E22" t="n">
-        <v>129354.290855699</v>
+        <v>129354.290855701</v>
       </c>
       <c r="F22" t="n">
         <v>137142.84604609</v>
@@ -1088,7 +1088,7 @@
         <v>101701</v>
       </c>
       <c r="I22" t="n">
-        <v>3502.25067242184</v>
+        <v>3502.25067242152</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1102,16 +1102,16 @@
         <v>103358.086176318</v>
       </c>
       <c r="C23" t="n">
-        <v>83445.1906883539</v>
+        <v>83445.1906883529</v>
       </c>
       <c r="D23" t="n">
-        <v>67536.3940203284</v>
+        <v>67536.3940203251</v>
       </c>
       <c r="E23" t="n">
-        <v>124146.161509699</v>
+        <v>124146.161509705</v>
       </c>
       <c r="F23" t="n">
-        <v>139018.429109167</v>
+        <v>139018.429109165</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>95942</v>
       </c>
       <c r="I23" t="n">
-        <v>7416.08617631816</v>
+        <v>7416.08617631785</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1134,16 +1134,16 @@
         <v>107965.815643777</v>
       </c>
       <c r="C24" t="n">
-        <v>84480.1002632539</v>
+        <v>84480.1002632549</v>
       </c>
       <c r="D24" t="n">
-        <v>73887.4950512877</v>
+        <v>73887.4950512864</v>
       </c>
       <c r="E24" t="n">
-        <v>131271.746991121</v>
+        <v>131271.746991126</v>
       </c>
       <c r="F24" t="n">
-        <v>141982.674937589</v>
+        <v>141982.674937586</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>102598</v>
       </c>
       <c r="I24" t="n">
-        <v>5367.81564377714</v>
+        <v>5367.81564377683</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1166,16 +1166,16 @@
         <v>106895.2297621</v>
       </c>
       <c r="C25" t="n">
-        <v>81986.7908473381</v>
+        <v>81986.7908473342</v>
       </c>
       <c r="D25" t="n">
-        <v>72913.1562274682</v>
+        <v>72913.1562274737</v>
       </c>
       <c r="E25" t="n">
-        <v>130765.096472798</v>
+        <v>130765.096472805</v>
       </c>
       <c r="F25" t="n">
-        <v>147823.014491116</v>
+        <v>147823.014491119</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>108157</v>
       </c>
       <c r="I25" t="n">
-        <v>-1261.77023789992</v>
+        <v>-1261.77023790023</v>
       </c>
       <c r="J25" t="s">
         <v>12</v>
@@ -1198,16 +1198,16 @@
         <v>109181.831376372</v>
       </c>
       <c r="C26" t="n">
-        <v>81782.3597199509</v>
+        <v>81782.3597199541</v>
       </c>
       <c r="D26" t="n">
-        <v>72573.0833243053</v>
+        <v>72573.083324306</v>
       </c>
       <c r="E26" t="n">
-        <v>134359.541190441</v>
+        <v>134359.541190442</v>
       </c>
       <c r="F26" t="n">
-        <v>151232.942334717</v>
+        <v>151232.94233472</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>109531</v>
       </c>
       <c r="I26" t="n">
-        <v>-349.16862362776</v>
+        <v>-349.168623628095</v>
       </c>
       <c r="J26" t="s">
         <v>12</v>
@@ -1230,13 +1230,13 @@
         <v>101393.061894587</v>
       </c>
       <c r="C27" t="n">
-        <v>78968.1339530183</v>
+        <v>78968.1339530144</v>
       </c>
       <c r="D27" t="n">
-        <v>60987.889383237</v>
+        <v>60987.8893832325</v>
       </c>
       <c r="E27" t="n">
-        <v>127434.256324615</v>
+        <v>127434.256324617</v>
       </c>
       <c r="F27" t="n">
         <v>141695.197982119</v>
@@ -1248,7 +1248,7 @@
         <v>96787</v>
       </c>
       <c r="I27" t="n">
-        <v>4606.06189458726</v>
+        <v>4606.06189458695</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1262,16 +1262,16 @@
         <v>124904.649546836</v>
       </c>
       <c r="C28" t="n">
-        <v>97174.6364300207</v>
+        <v>97174.6364300163</v>
       </c>
       <c r="D28" t="n">
-        <v>84449.1404414905</v>
+        <v>84449.1404414904</v>
       </c>
       <c r="E28" t="n">
         <v>152456.366628936</v>
       </c>
       <c r="F28" t="n">
-        <v>167826.820467101</v>
+        <v>167826.820467099</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>114003</v>
       </c>
       <c r="I28" t="n">
-        <v>10901.6495468359</v>
+        <v>10901.6495468356</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1294,16 +1294,16 @@
         <v>114508.819070649</v>
       </c>
       <c r="C29" t="n">
-        <v>87811.7023134173</v>
+        <v>87811.702313413</v>
       </c>
       <c r="D29" t="n">
-        <v>74175.4405646146</v>
+        <v>74175.440564612</v>
       </c>
       <c r="E29" t="n">
         <v>144597.691185606</v>
       </c>
       <c r="F29" t="n">
-        <v>164118.165864277</v>
+        <v>164118.165864278</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>95933</v>
       </c>
       <c r="I29" t="n">
-        <v>18575.8190706494</v>
+        <v>18575.8190706491</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>114231.015174693</v>
+        <v>114231.015174692</v>
       </c>
       <c r="C30" t="n">
-        <v>86398.6263368112</v>
+        <v>86398.6263368093</v>
       </c>
       <c r="D30" t="n">
-        <v>74954.2097823214</v>
+        <v>74954.2097823187</v>
       </c>
       <c r="E30" t="n">
-        <v>141584.200502732</v>
+        <v>141584.200502728</v>
       </c>
       <c r="F30" t="n">
-        <v>162976.694518494</v>
+        <v>162976.694518499</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>102912</v>
       </c>
       <c r="I30" t="n">
-        <v>11319.0151746926</v>
+        <v>11319.0151746923</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1358,13 +1358,13 @@
         <v>109360.477182674</v>
       </c>
       <c r="C31" t="n">
-        <v>80315.0683373193</v>
+        <v>80315.0683373198</v>
       </c>
       <c r="D31" t="n">
-        <v>63769.6031257483</v>
+        <v>63769.6031257449</v>
       </c>
       <c r="E31" t="n">
-        <v>139150.386841314</v>
+        <v>139150.386841316</v>
       </c>
       <c r="F31" t="n">
         <v>160183.500254546</v>
@@ -1376,7 +1376,7 @@
         <v>106846</v>
       </c>
       <c r="I31" t="n">
-        <v>2514.47718267392</v>
+        <v>2514.4771826736</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1390,16 +1390,16 @@
         <v>116743.408109713</v>
       </c>
       <c r="C32" t="n">
-        <v>89313.6286061352</v>
+        <v>89313.6286061343</v>
       </c>
       <c r="D32" t="n">
-        <v>70070.5948471438</v>
+        <v>70070.5948471405</v>
       </c>
       <c r="E32" t="n">
-        <v>148723.757201303</v>
+        <v>148723.757201299</v>
       </c>
       <c r="F32" t="n">
-        <v>166244.861983803</v>
+        <v>166244.861983805</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>112648</v>
       </c>
       <c r="I32" t="n">
-        <v>4095.40810971343</v>
+        <v>4095.4081097131</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1422,16 +1422,16 @@
         <v>116350.943315835</v>
       </c>
       <c r="C33" t="n">
-        <v>84958.9065940751</v>
+        <v>84958.9065940743</v>
       </c>
       <c r="D33" t="n">
-        <v>72662.6186683793</v>
+        <v>72662.6186683715</v>
       </c>
       <c r="E33" t="n">
-        <v>146633.473172231</v>
+        <v>146633.473172233</v>
       </c>
       <c r="F33" t="n">
-        <v>165208.643220501</v>
+        <v>165208.6432205</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>115375</v>
       </c>
       <c r="I33" t="n">
-        <v>975.943315835073</v>
+        <v>975.943315834753</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1454,16 +1454,16 @@
         <v>108320.591204846</v>
       </c>
       <c r="C34" t="n">
-        <v>74874.2487846842</v>
+        <v>74874.2487846834</v>
       </c>
       <c r="D34" t="n">
-        <v>58885.182394543</v>
+        <v>58885.1823945381</v>
       </c>
       <c r="E34" t="n">
-        <v>143521.175818146</v>
+        <v>143521.175818152</v>
       </c>
       <c r="F34" t="n">
-        <v>160379.718134346</v>
+        <v>160379.718134347</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>101083</v>
       </c>
       <c r="I34" t="n">
-        <v>7237.59120484593</v>
+        <v>7237.59120484562</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,16 +1483,16 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>106415.60349502</v>
+        <v>106415.603495019</v>
       </c>
       <c r="C35" t="n">
-        <v>75216.8456377503</v>
+        <v>75216.8456377545</v>
       </c>
       <c r="D35" t="n">
-        <v>51559.9809046833</v>
+        <v>51559.9809046789</v>
       </c>
       <c r="E35" t="n">
-        <v>138270.810297312</v>
+        <v>138270.810297308</v>
       </c>
       <c r="F35" t="n">
         <v>167474.013642748</v>
@@ -1504,7 +1504,7 @@
         <v>90015</v>
       </c>
       <c r="I35" t="n">
-        <v>16400.6034950196</v>
+        <v>16400.6034950193</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1518,16 +1518,16 @@
         <v>110665.157613004</v>
       </c>
       <c r="C36" t="n">
-        <v>76615.7108246708</v>
+        <v>76615.7108246717</v>
       </c>
       <c r="D36" t="n">
-        <v>53081.08990381</v>
+        <v>53081.0899038036</v>
       </c>
       <c r="E36" t="n">
-        <v>145611.563566154</v>
+        <v>145611.56356616</v>
       </c>
       <c r="F36" t="n">
-        <v>165242.647907935</v>
+        <v>165242.647907938</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>86371</v>
       </c>
       <c r="I36" t="n">
-        <v>24294.1576130041</v>
+        <v>24294.1576130037</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1550,16 +1550,16 @@
         <v>109088.082486108</v>
       </c>
       <c r="C37" t="n">
-        <v>73259.7496657811</v>
+        <v>73259.7496657829</v>
       </c>
       <c r="D37" t="n">
-        <v>56480.0299019878</v>
+        <v>56480.029901984</v>
       </c>
       <c r="E37" t="n">
-        <v>146753.995641745</v>
+        <v>146753.995641752</v>
       </c>
       <c r="F37" t="n">
-        <v>164903.435773169</v>
+        <v>164903.435773174</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>59498</v>
       </c>
       <c r="I37" t="n">
-        <v>49590.082486108</v>
+        <v>49590.0824861077</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>111279.256620922</v>
+        <v>111279.256620921</v>
       </c>
       <c r="C38" t="n">
-        <v>78239.7995467309</v>
+        <v>78239.7995467285</v>
       </c>
       <c r="D38" t="n">
-        <v>57807.185719847</v>
+        <v>57807.1857198379</v>
       </c>
       <c r="E38" t="n">
-        <v>149230.279073713</v>
+        <v>149230.279073715</v>
       </c>
       <c r="F38" t="n">
-        <v>171373.21271753</v>
+        <v>171373.212717532</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>74790</v>
       </c>
       <c r="I38" t="n">
-        <v>36489.2566209216</v>
+        <v>36489.2566209213</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>104641.577462856</v>
+        <v>104641.577462855</v>
       </c>
       <c r="C39" t="n">
-        <v>69043.532580171</v>
+        <v>69043.5325801683</v>
       </c>
       <c r="D39" t="n">
-        <v>52268.6356173675</v>
+        <v>52268.63561737</v>
       </c>
       <c r="E39" t="n">
         <v>142290.915446882</v>
       </c>
       <c r="F39" t="n">
-        <v>170154.707704206</v>
+        <v>170154.707704209</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>116063</v>
       </c>
       <c r="I39" t="n">
-        <v>-11421.4225371443</v>
+        <v>-11421.4225371446</v>
       </c>
       <c r="J39" t="s">
         <v>12</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>127120.435732358</v>
+        <v>127120.435732357</v>
       </c>
       <c r="C40" t="n">
-        <v>87421.6932631642</v>
+        <v>87421.6932631573</v>
       </c>
       <c r="D40" t="n">
-        <v>73908.7793532958</v>
+        <v>73908.7793532938</v>
       </c>
       <c r="E40" t="n">
-        <v>167924.312170154</v>
+        <v>167924.312170153</v>
       </c>
       <c r="F40" t="n">
-        <v>185375.022891663</v>
+        <v>185375.022891664</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>126932</v>
       </c>
       <c r="I40" t="n">
-        <v>188.435732357553</v>
+        <v>188.435732357204</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>117594.66790439</v>
+        <v>117594.667904389</v>
       </c>
       <c r="C41" t="n">
-        <v>77925.7947249614</v>
+        <v>77925.7947249598</v>
       </c>
       <c r="D41" t="n">
-        <v>60320.4701274915</v>
+        <v>60320.4701274894</v>
       </c>
       <c r="E41" t="n">
-        <v>158155.069427752</v>
+        <v>158155.069427753</v>
       </c>
       <c r="F41" t="n">
-        <v>183895.840525557</v>
+        <v>183895.840525564</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>116400</v>
       </c>
       <c r="I41" t="n">
-        <v>1194.66790438973</v>
+        <v>1194.66790438938</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>117059.085870709</v>
+        <v>117059.085870708</v>
       </c>
       <c r="C42" t="n">
-        <v>76118.7746916983</v>
+        <v>76118.7746916953</v>
       </c>
       <c r="D42" t="n">
-        <v>54645.5070131978</v>
+        <v>54645.5070131906</v>
       </c>
       <c r="E42" t="n">
-        <v>161026.862013732</v>
+        <v>161026.862013734</v>
       </c>
       <c r="F42" t="n">
-        <v>185432.264521314</v>
+        <v>185432.264521317</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>115934</v>
       </c>
       <c r="I42" t="n">
-        <v>1125.08587070885</v>
+        <v>1125.08587070848</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1742,16 +1742,16 @@
         <v>112633.167023901</v>
       </c>
       <c r="C43" t="n">
-        <v>73426.1479248574</v>
+        <v>73426.1479248559</v>
       </c>
       <c r="D43" t="n">
-        <v>52689.7571020578</v>
+        <v>52689.7571020489</v>
       </c>
       <c r="E43" t="n">
-        <v>157631.20948506</v>
+        <v>157631.209485059</v>
       </c>
       <c r="F43" t="n">
-        <v>181745.933970471</v>
+        <v>181745.933970477</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>110063</v>
       </c>
       <c r="I43" t="n">
-        <v>2570.16702390106</v>
+        <v>2570.16702390069</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>120546.228463294</v>
+        <v>120546.228463293</v>
       </c>
       <c r="C44" t="n">
-        <v>79532.5370594449</v>
+        <v>79532.5370594438</v>
       </c>
       <c r="D44" t="n">
-        <v>59792.8977093785</v>
+        <v>59792.8977093776</v>
       </c>
       <c r="E44" t="n">
-        <v>164337.235084107</v>
+        <v>164337.235084111</v>
       </c>
       <c r="F44" t="n">
-        <v>196412.135131116</v>
+        <v>196412.13513112</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>125116</v>
       </c>
       <c r="I44" t="n">
-        <v>-4569.77153670616</v>
+        <v>-4569.77153670654</v>
       </c>
       <c r="J44" t="s">
         <v>12</v>
@@ -1806,13 +1806,13 @@
         <v>119413.559726715</v>
       </c>
       <c r="C45" t="n">
-        <v>77475.4480083228</v>
+        <v>77475.4480083212</v>
       </c>
       <c r="D45" t="n">
-        <v>59350.7236115826</v>
+        <v>59350.7236115765</v>
       </c>
       <c r="E45" t="n">
-        <v>164078.909187755</v>
+        <v>164078.909187756</v>
       </c>
       <c r="F45" t="n">
         <v>187617.285177589</v>
@@ -1824,7 +1824,7 @@
         <v>138875</v>
       </c>
       <c r="I45" t="n">
-        <v>-19461.440273285</v>
+        <v>-19461.4402732854</v>
       </c>
       <c r="J45" t="s">
         <v>12</v>
@@ -1838,16 +1838,16 @@
         <v>111391.621822883</v>
       </c>
       <c r="C46" t="n">
-        <v>69112.9875142356</v>
+        <v>69112.9875142366</v>
       </c>
       <c r="D46" t="n">
-        <v>42678.1866222115</v>
+        <v>42678.1866222024</v>
       </c>
       <c r="E46" t="n">
-        <v>157876.176342592</v>
+        <v>157876.176342594</v>
       </c>
       <c r="F46" t="n">
-        <v>183033.954193876</v>
+        <v>183033.954193882</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>123495</v>
       </c>
       <c r="I46" t="n">
-        <v>-12103.3781771168</v>
+        <v>-12103.3781771172</v>
       </c>
       <c r="J46" t="s">
         <v>12</v>
@@ -1870,16 +1870,16 @@
         <v>108842.060909184</v>
       </c>
       <c r="C47" t="n">
-        <v>64246.421455095</v>
+        <v>64246.4214550916</v>
       </c>
       <c r="D47" t="n">
-        <v>42313.4186782615</v>
+        <v>42313.4186782641</v>
       </c>
       <c r="E47" t="n">
-        <v>157241.13161517</v>
+        <v>157241.131615172</v>
       </c>
       <c r="F47" t="n">
-        <v>184043.461851865</v>
+        <v>184043.461851869</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>129041</v>
       </c>
       <c r="I47" t="n">
-        <v>-20198.9390908159</v>
+        <v>-20198.9390908163</v>
       </c>
       <c r="J47" t="s">
         <v>12</v>
@@ -1902,16 +1902,16 @@
         <v>113563.558369186</v>
       </c>
       <c r="C48" t="n">
-        <v>67248.7045682383</v>
+        <v>67248.7045682411</v>
       </c>
       <c r="D48" t="n">
-        <v>48062.2012637222</v>
+        <v>48062.2012637181</v>
       </c>
       <c r="E48" t="n">
         <v>161487.208370457</v>
       </c>
       <c r="F48" t="n">
-        <v>194947.349479186</v>
+        <v>194947.349479191</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>132270</v>
       </c>
       <c r="I48" t="n">
-        <v>-18706.4416308138</v>
+        <v>-18706.4416308142</v>
       </c>
       <c r="J48" t="s">
         <v>12</v>
@@ -1934,16 +1934,16 @@
         <v>112491.000370859</v>
       </c>
       <c r="C49" t="n">
-        <v>66790.7541745117</v>
+        <v>66790.7541745142</v>
       </c>
       <c r="D49" t="n">
-        <v>45904.0732986358</v>
+        <v>45904.0732986252</v>
       </c>
       <c r="E49" t="n">
-        <v>163127.498064387</v>
+        <v>163127.498064389</v>
       </c>
       <c r="F49" t="n">
-        <v>192974.101044771</v>
+        <v>192974.101044779</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>121415</v>
       </c>
       <c r="I49" t="n">
-        <v>-8923.99962914086</v>
+        <v>-8923.99962914122</v>
       </c>
       <c r="J49" t="s">
         <v>12</v>
